--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2341860.855855838</v>
+        <v>-2344597.168877073</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>51.47074509111629</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>337.3655157904967</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>212.7830746629394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>49.15028699323124</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>36.09143880632936</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>197.7119277653512</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,7 +947,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.99748334856753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>99.64989683332234</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5997248844083</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>302.1620453835004</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>9.582168977851188</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>19.63638708861253</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>180.5692402226182</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076765</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222801</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1604.498942504795</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="C2" t="n">
-        <v>1604.498942504795</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1994.638274480607</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.498942504795</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081667</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>602.021613731249</v>
+        <v>1642.491563491407</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>1473.5553805635</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>1323.438741151165</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>1175.525647568772</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>1125.878893030154</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>1125.878893030154</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1011.659629459506</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W4" t="n">
-        <v>1011.659629459506</v>
+        <v>2272.922158363194</v>
       </c>
       <c r="X4" t="n">
-        <v>783.6700785614887</v>
+        <v>2044.932607465177</v>
       </c>
       <c r="Y4" t="n">
-        <v>783.6700785614887</v>
+        <v>1824.140028321647</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.59552936621</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>1484.033655906823</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>1125.767957300073</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>739.9797047018285</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>328.9937999122209</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>317.3294536769139</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182944</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.59552936621</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,16 +4632,16 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4650,22 +4650,22 @@
         <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.8756322024072</v>
+        <v>449.9329810105323</v>
       </c>
       <c r="C7" t="n">
-        <v>346.8756322024072</v>
+        <v>449.9329810105323</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>299.8163415981966</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>151.9032480158035</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>151.9032480158035</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>151.9032480158035</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>151.9032480158035</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288652</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W7" t="n">
-        <v>756.5136479306643</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="X7" t="n">
-        <v>528.524097032647</v>
+        <v>631.5814458407721</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.524097032647</v>
+        <v>631.5814458407721</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1798.734238163263</v>
+        <v>1249.246750862032</v>
       </c>
       <c r="C8" t="n">
-        <v>1429.771721222852</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D8" t="n">
-        <v>1071.506022616101</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>1071.506022616101</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>660.5201178264938</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2012.851841098923</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>1639.386082837843</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163263</v>
+        <v>1249.246750862032</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938517</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.6438724554071</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>387.8068838291603</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>387.8068838291603</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>219.8204191374388</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>71.08152100094506</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1413.467639269233</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W10" t="n">
-        <v>1231.074467327194</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X10" t="n">
-        <v>1003.084916429177</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.2923372856468</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>853.936052826184</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138482</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5473,13 +5473,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656818</v>
@@ -6847,22 +6847,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,67 +7069,67 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954142</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380721</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L3" t="n">
-        <v>129.7511347056858</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>98.24448441976853</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>331.2630965723643</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>156.9480260155296</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>21.44661613801733</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.0462045174986</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744471</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434117</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345294945</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1378858.603088147</v>
+        <v>1378858.603088146</v>
       </c>
     </row>
     <row r="7">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272276</v>
+        <v>31766.15265272277</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321419</v>
@@ -26350,7 +26350,7 @@
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321418</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27111.73467492341</v>
+        <v>27111.73467492337</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
@@ -26427,25 +26427,25 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="I4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481317</v>
       </c>
       <c r="J4" t="n">
-        <v>15498.22772481318</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="M4" t="n">
         <v>15498.22772481313</v>
@@ -26454,7 +26454,7 @@
         <v>15498.22772481314</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481319</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481314</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1203035.138037965</v>
+        <v>-1203499.434829989</v>
       </c>
       <c r="C6" t="n">
-        <v>-184999.5474933749</v>
+        <v>-184999.5474933748</v>
       </c>
       <c r="D6" t="n">
         <v>-184999.5474933748</v>
       </c>
       <c r="E6" t="n">
-        <v>-575758.0099256724</v>
+        <v>-575792.7478511081</v>
       </c>
       <c r="F6" t="n">
-        <v>-68272.56830112646</v>
+        <v>-68307.30622656218</v>
       </c>
       <c r="G6" t="n">
-        <v>-68272.56830112645</v>
+        <v>-68307.3062265622</v>
       </c>
       <c r="H6" t="n">
-        <v>-68272.56830112646</v>
+        <v>-68307.30622656223</v>
       </c>
       <c r="I6" t="n">
-        <v>-97037.9730791461</v>
+        <v>-97037.97307914613</v>
       </c>
       <c r="J6" t="n">
         <v>-245215.4328954969</v>
@@ -26555,10 +26555,10 @@
         <v>-210217.548814441</v>
       </c>
       <c r="N6" t="n">
-        <v>-97037.97307914615</v>
+        <v>-97037.97307914612</v>
       </c>
       <c r="O6" t="n">
-        <v>-77610.25508551439</v>
+        <v>-77610.25508551433</v>
       </c>
       <c r="P6" t="n">
         <v>-77610.25508551436</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17.31752583018624</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.82414489168266</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>103.3066247970542</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.2404553074861</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>5.146698370578235</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.92327345218274</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>109.3856573894536</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>339.6587997395618</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>85.16020811528804</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>105.9537581139728</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399242</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33026,25 +33026,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L3" t="n">
-        <v>427.431495343536</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>466.4238188159148</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>489.4415840126424</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676405</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>591.2668520422174</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>134.202553156591</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930848</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942243</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
